--- a/bms-site/src/main/webapp/WEB-INF/templates/dispatch/dispatch_waybill_template_update.xlsx
+++ b/bms-site/src/main/webapp/WEB-INF/templates/dispatch/dispatch_waybill_template_update.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>JY0002240110</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -45,6 +45,10 @@
   </si>
   <si>
     <t>调整重量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流产品类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,11 +451,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -459,13 +461,14 @@
     <col min="2" max="5" width="12.375" customWidth="1"/>
     <col min="6" max="6" width="11.375" customWidth="1"/>
     <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
     <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.75" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -487,8 +490,11 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
